--- a/Data/Variables/var003_Profil_003_Abwesenheiten_Normalfall_Anlage.xlsx
+++ b/Data/Variables/var003_Profil_003_Abwesenheiten_Normalfall_Anlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\PythonProject1\Data\Variables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDDE8F4-5550-4E17-9C14-79EC70A4E1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550D18E1-3421-4584-8575-A0C15AE5F217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="108" windowWidth="29100" windowHeight="16308" xr2:uid="{6CD53E19-C66B-4CA9-B9E6-15E69A39AF95}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="37308" windowHeight="15300" xr2:uid="{6CD53E19-C66B-4CA9-B9E6-15E69A39AF95}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Wert1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Variable/Konfiguration</t>
   </si>
@@ -39,19 +36,25 @@
     <t>Config2</t>
   </si>
   <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Wert2</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>Variable1</t>
-  </si>
-  <si>
-    <t>Variable2</t>
+    <t>BaseStateChromium</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>BaseStatePixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Pixel9Pro_API35</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1239337A-62D4-4F5C-ADC9-87BFDFBA8030}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,35 +419,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
